--- a/results/supplementary/FEEspinosadelAlbaST2.xlsx
+++ b/results/supplementary/FEEspinosadelAlbaST2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - Universidad de Oviedo\IMIB\Softwares\GitHub\Dianthus_PEG\results\supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Dianthus_PEG/results/supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_9A02670EB998A1E6DB09A818B99C7D2AA5B73B53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{846C311E-4421-4880-8C27-6C674634724A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pca summary" sheetId="3" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>eigenvalue</t>
   </si>
@@ -59,21 +60,6 @@
     <t>Correlations</t>
   </si>
   <si>
-    <t>Dim.1</t>
-  </si>
-  <si>
-    <t>Dim.2</t>
-  </si>
-  <si>
-    <t>Dim.3</t>
-  </si>
-  <si>
-    <t>Dim.4</t>
-  </si>
-  <si>
-    <t>Dim.5</t>
-  </si>
-  <si>
     <t>bio1</t>
   </si>
   <si>
@@ -93,13 +79,37 @@
   </si>
   <si>
     <t>Variables contributions</t>
+  </si>
+  <si>
+    <t>Dimension 1</t>
+  </si>
+  <si>
+    <t>Dimension 2</t>
+  </si>
+  <si>
+    <t>Dimension 3</t>
+  </si>
+  <si>
+    <t>Dimension 4</t>
+  </si>
+  <si>
+    <t>Dimension 5</t>
+  </si>
+  <si>
+    <t>Supporting Table 2: PCA summary values from Figure 3C.</t>
+  </si>
+  <si>
+    <t>Functional intraspecific variation in the base water potential for seed germination along soil microclimatic gradients. Espinosa del Alba, C., Cruz-Tejada, D., Jiménez-Alfaro, B., and E. Fernández-Pascual. (2025). Functional Ecology.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,15 +118,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Lucida Sans Typewriter"/>
-      <family val="3"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,17 +151,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -162,6 +206,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,413 +474,510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A25" sqref="A25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="2">
         <v>3.86159791</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="2">
         <v>64.359965200000005</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="2">
         <v>64.359970000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="2">
         <v>1.01767009</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="2">
         <v>16.961168199999999</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="2">
         <v>81.321129999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="2">
         <v>0.81649369999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="2">
         <v>13.6082283</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="2">
         <v>94.929360000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="2">
         <v>0.2286617</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="2">
         <v>3.8110282999999998</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="2">
         <v>98.740390000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="2">
         <v>6.2711799999999998E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="2">
         <v>1.0451965999999999</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="2">
         <v>99.785589999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="2">
         <v>1.2864810000000001E-2</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="2">
         <v>0.21441350000000001</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3">
+        <v>0.95273490000000005</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-9.5883540000000003E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-0.19434280000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.19583417</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.65731E-3</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" s="3">
+        <v>0.86831519999999995</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4.1033819999999999E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.42691560000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-0.18890227000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.16235430000000001</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C13" s="3">
+        <v>0.85009610000000002</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.12739434999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.4779911</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-2.501923E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-0.17872149000000001</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C14" s="3">
+        <v>-0.12889800000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.98850464999999998</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-3.2440299999999998E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6.7953269999999996E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2.2242560000000001E-2</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C15" s="3">
+        <v>-0.74625459999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-0.11525557</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.58118479999999995</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.30016131000000001</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4.3399569999999998E-2</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>0.95273490000000005</v>
-      </c>
-      <c r="C12">
-        <v>-9.5883540000000003E-2</v>
-      </c>
-      <c r="D12">
-        <v>-0.19434280000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.19583417</v>
-      </c>
-      <c r="F12">
-        <v>3.65731E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C16" s="3">
+        <v>0.95065719999999998</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-1.174965E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-0.1707747</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.24348755999999999</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4.4943039999999997E-2</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>0.86831519999999995</v>
-      </c>
-      <c r="C13">
-        <v>4.1033819999999999E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.42691560000000001</v>
-      </c>
-      <c r="E13">
-        <v>-0.18890227000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.16235430000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>0.85009610000000002</v>
-      </c>
-      <c r="C14">
-        <v>0.12739434999999999</v>
-      </c>
-      <c r="D14">
-        <v>0.4779911</v>
-      </c>
-      <c r="E14">
-        <v>-2.501923E-2</v>
-      </c>
-      <c r="F14">
-        <v>-0.17872149000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>-0.12889800000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.98850464999999998</v>
-      </c>
-      <c r="D15">
-        <v>-3.2440299999999998E-2</v>
-      </c>
-      <c r="E15">
-        <v>6.7953269999999996E-2</v>
-      </c>
-      <c r="F15">
-        <v>2.2242560000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>-0.74625459999999999</v>
-      </c>
-      <c r="C16">
-        <v>-0.11525557</v>
-      </c>
-      <c r="D16">
-        <v>0.58118479999999995</v>
-      </c>
-      <c r="E16">
-        <v>0.30016131000000001</v>
-      </c>
-      <c r="F16">
-        <v>4.3399569999999998E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="F18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>0.95065719999999998</v>
-      </c>
-      <c r="C17">
-        <v>-1.174965E-2</v>
-      </c>
-      <c r="D17">
-        <v>-0.1707747</v>
-      </c>
-      <c r="E17">
-        <v>0.24348755999999999</v>
-      </c>
-      <c r="F17">
-        <v>4.4943039999999997E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="G18" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3">
+        <v>23.505910100000001</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.90340211000000004</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.6257722000000001</v>
+      </c>
+      <c r="F19" s="3">
+        <v>16.771948500000001</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2.1329190000000001E-2</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="3">
+        <v>19.524851600000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.16545383999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>22.321900299999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15.6056159</v>
+      </c>
+      <c r="G20" s="3">
+        <v>42.031836380000001</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C21" s="3">
+        <v>18.714100899999998</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.5947527100000001</v>
+      </c>
+      <c r="E21" s="3">
+        <v>27.982522199999998</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.2737501</v>
+      </c>
+      <c r="G21" s="3">
+        <v>50.93359134</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F20" t="s">
+      <c r="C22" s="3">
+        <v>0.43025419999999998</v>
+      </c>
+      <c r="D22" s="3">
+        <v>96.017506069999996</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.12888930000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2.0194228000000001</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.78889699999999996</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C23" s="3">
+        <v>14.421384099999999</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.30531956</v>
+      </c>
+      <c r="E23" s="3">
+        <v>41.369059100000001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>39.401793699999999</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3.0034576300000002</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
-        <v>23.505910100000001</v>
-      </c>
-      <c r="C21">
-        <v>0.90340211000000004</v>
-      </c>
-      <c r="D21">
-        <v>4.6257722000000001</v>
-      </c>
-      <c r="E21">
-        <v>16.771948500000001</v>
-      </c>
-      <c r="F21">
-        <v>2.1329190000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>19.524851600000002</v>
-      </c>
-      <c r="C22">
-        <v>0.16545383999999999</v>
-      </c>
-      <c r="D22">
-        <v>22.321900299999999</v>
-      </c>
-      <c r="E22">
-        <v>15.6056159</v>
-      </c>
-      <c r="F22">
-        <v>42.031836380000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>18.714100899999998</v>
-      </c>
-      <c r="C23">
-        <v>1.5947527100000001</v>
-      </c>
-      <c r="D23">
-        <v>27.982522199999998</v>
-      </c>
-      <c r="E23">
-        <v>0.2737501</v>
-      </c>
-      <c r="F23">
-        <v>50.93359134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>0.43025419999999998</v>
-      </c>
-      <c r="C24">
-        <v>96.017506069999996</v>
-      </c>
-      <c r="D24">
-        <v>0.12888930000000001</v>
-      </c>
-      <c r="E24">
-        <v>2.0194228000000001</v>
-      </c>
-      <c r="F24">
-        <v>0.78889699999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>14.421384099999999</v>
-      </c>
-      <c r="C25">
-        <v>1.30531956</v>
-      </c>
-      <c r="D25">
-        <v>41.369059100000001</v>
-      </c>
-      <c r="E25">
-        <v>39.401793699999999</v>
-      </c>
-      <c r="F25">
-        <v>3.0034576300000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26">
+      <c r="C24" s="3">
         <v>23.403499199999999</v>
       </c>
-      <c r="C26">
+      <c r="D24" s="3">
         <v>1.356572E-2</v>
       </c>
-      <c r="D26">
+      <c r="E24" s="3">
         <v>3.5718568999999998</v>
       </c>
-      <c r="E26">
+      <c r="F24" s="3">
         <v>25.9274691</v>
       </c>
-      <c r="F26">
+      <c r="G24" s="3">
         <v>3.2208884599999998</v>
       </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A25:G25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
